--- a/assets/docs/aid_import_template.xlsx
+++ b/assets/docs/aid_import_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Nom</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">Date d'ouverture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date de pré-dépôt</t>
   </si>
   <si>
     <t xml:space="preserve">Date de clôture</t>
@@ -232,16 +229,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,116 +503,113 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AD12" activeCellId="0" sqref="AD12"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16376" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16375" style="1" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -639,13 +637,13 @@
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="s">
-        <v>28</v>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>29</v>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/assets/docs/aid_import_template.xlsx
+++ b/assets/docs/aid_import_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t xml:space="preserve">Nom</t>
   </si>
@@ -105,6 +105,64 @@
   </si>
   <si>
     <t xml:space="preserve">Projets référents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prime à la conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action cœur de ville, 🇪🇺AGRIP - Promotion des produits agricoles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22, 347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commune, Intercommunalité / Pays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subvention, Prêt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commentaire subvention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description complète de l'aide
+Et de ses objectifs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exemples
+De projets réalisables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipement public, Eau potable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponctuelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditions 
+D'élibigilités</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réflexion / conception, Mise en œuvre / réalisation, Usage / valorisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dépenses de fonctionnement, Dépenses d’investissement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://aides-territoires.beta.gouv.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procédure de contact
+Et emails à contacter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aides-territoires@beta.gouv.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition de véhicule décarboné, Construction d’une école</t>
   </si>
   <si>
     <t xml:space="preserve">Show or hide a sheet</t>
@@ -117,8 +175,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -229,7 +288,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -243,6 +302,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,12 +574,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="Q15" activeCellId="1" sqref="O2 Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -611,7 +682,95 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
+    <row r="2" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="6" t="n">
+        <v>45477</v>
+      </c>
+      <c r="P2" s="6" t="n">
+        <v>45569</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>71016</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U2" r:id="rId1" display="https://aides-territoires.beta.gouv.fr/"/>
+    <hyperlink ref="V2" r:id="rId2" display="https://aides-territoires.beta.gouv.fr/"/>
+    <hyperlink ref="Y2" r:id="rId3" display="https://aides-territoires.beta.gouv.fr/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -631,19 +790,19 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="s">
-        <v>27</v>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
